--- a/TTP Matrix.xlsx
+++ b/TTP Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\workshop\Documents\GitHub\AttacKG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1B935-F91E-4ACA-B2DE-01FA61B7299B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AD66B5-A1BC-4CB6-AB41-F153D16864AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="630" windowWidth="20655" windowHeight="14490" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="2745" windowWidth="22440" windowHeight="14385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2873,14 +2873,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3170,76 +3170,76 @@
     <row r="1" spans="2:43" ht="13.5" customHeight="1"/>
     <row r="2" spans="2:43" ht="13.5" customHeight="1"/>
     <row r="9" spans="2:43" ht="15.75">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15" t="s">
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="s">
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15" t="s">
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15" t="s">
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15" t="s">
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15" t="s">
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15" t="s">
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15" t="s">
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AG9" s="15"/>
-      <c r="AH9" s="15"/>
-      <c r="AI9" s="15" t="s">
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13"/>
+      <c r="AI9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AJ9" s="15"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="15" t="s">
+      <c r="AJ9" s="13"/>
+      <c r="AK9" s="13"/>
+      <c r="AL9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AM9" s="15"/>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15" t="s">
+      <c r="AM9" s="13"/>
+      <c r="AN9" s="13"/>
+      <c r="AO9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AP9" s="15"/>
-      <c r="AQ9" s="15"/>
+      <c r="AP9" s="13"/>
+      <c r="AQ9" s="13"/>
     </row>
     <row r="10" spans="2:43" ht="15" customHeight="1">
       <c r="B10" s="14" t="s">
@@ -3937,9 +3937,9 @@
         <v>26</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="4" t="s">
         <v>118</v>
       </c>
@@ -4017,9 +4017,9 @@
         <v>26</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="1" t="s">
         <v>129</v>
       </c>
@@ -4095,12 +4095,12 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
       <c r="K20" s="1" t="s">
         <v>140</v>
       </c>
@@ -4137,9 +4137,9 @@
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="5"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
       <c r="AF20" s="4" t="s">
         <v>145</v>
       </c>
@@ -4150,9 +4150,9 @@
       </c>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="5"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
+      <c r="AN20" s="15"/>
       <c r="AO20" s="9" t="s">
         <v>147</v>
       </c>
@@ -4162,15 +4162,15 @@
       <c r="AQ20" s="7"/>
     </row>
     <row r="21" spans="2:43" ht="72" customHeight="1">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
       <c r="K21" s="1" t="s">
         <v>148</v>
       </c>
@@ -4209,9 +4209,9 @@
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="5"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
+      <c r="AC21" s="15"/>
+      <c r="AD21" s="15"/>
+      <c r="AE21" s="15"/>
       <c r="AF21" s="1" t="s">
         <v>153</v>
       </c>
@@ -4224,9 +4224,9 @@
       </c>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="5"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
+      <c r="AN21" s="15"/>
       <c r="AO21" s="6" t="s">
         <v>155</v>
       </c>
@@ -4234,15 +4234,15 @@
       <c r="AQ21" s="8"/>
     </row>
     <row r="22" spans="2:43" ht="60" customHeight="1">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
       <c r="K22" s="4" t="s">
         <v>156</v>
       </c>
@@ -4279,9 +4279,9 @@
       </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="5"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
+      <c r="AC22" s="15"/>
+      <c r="AD22" s="15"/>
+      <c r="AE22" s="15"/>
       <c r="AF22" s="1" t="s">
         <v>160</v>
       </c>
@@ -4294,9 +4294,9 @@
       </c>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="5"/>
-      <c r="AL22" s="13"/>
-      <c r="AM22" s="13"/>
-      <c r="AN22" s="13"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
       <c r="AO22" s="6" t="s">
         <v>162</v>
       </c>
@@ -4304,18 +4304,18 @@
       <c r="AQ22" s="8"/>
     </row>
     <row r="23" spans="2:43" ht="60" customHeight="1">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
       <c r="N23" s="1" t="s">
         <v>121</v>
       </c>
@@ -4347,9 +4347,9 @@
       </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="5"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
       <c r="AF23" s="1" t="s">
         <v>97</v>
       </c>
@@ -4364,9 +4364,9 @@
         <v>26</v>
       </c>
       <c r="AK23" s="3"/>
-      <c r="AL23" s="13"/>
-      <c r="AM23" s="13"/>
-      <c r="AN23" s="13"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
+      <c r="AN23" s="15"/>
       <c r="AO23" s="6" t="s">
         <v>166</v>
       </c>
@@ -4374,18 +4374,18 @@
       <c r="AQ23" s="8"/>
     </row>
     <row r="24" spans="2:43" ht="72" customHeight="1">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
       <c r="N24" s="1" t="s">
         <v>167</v>
       </c>
@@ -4393,9 +4393,9 @@
         <v>26</v>
       </c>
       <c r="P24" s="3"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
       <c r="T24" s="1" t="s">
         <v>168</v>
       </c>
@@ -4413,9 +4413,9 @@
       </c>
       <c r="AA24" s="3"/>
       <c r="AB24" s="5"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="13"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
       <c r="AF24" s="4" t="s">
         <v>171</v>
       </c>
@@ -4426,26 +4426,26 @@
       </c>
       <c r="AJ24" s="3"/>
       <c r="AK24" s="5"/>
-      <c r="AL24" s="13"/>
-      <c r="AM24" s="13"/>
-      <c r="AN24" s="13"/>
-      <c r="AO24" s="13"/>
-      <c r="AP24" s="13"/>
-      <c r="AQ24" s="13"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
+      <c r="AN24" s="15"/>
+      <c r="AO24" s="15"/>
+      <c r="AP24" s="15"/>
+      <c r="AQ24" s="15"/>
     </row>
     <row r="25" spans="2:43" ht="48" customHeight="1">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="1" t="s">
         <v>173</v>
       </c>
@@ -4453,9 +4453,9 @@
         <v>26</v>
       </c>
       <c r="P25" s="3"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
       <c r="T25" s="1" t="s">
         <v>174</v>
       </c>
@@ -4477,9 +4477,9 @@
         <v>26</v>
       </c>
       <c r="AB25" s="3"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
       <c r="AF25" s="1" t="s">
         <v>110</v>
       </c>
@@ -4494,26 +4494,26 @@
         <v>26</v>
       </c>
       <c r="AK25" s="3"/>
-      <c r="AL25" s="13"/>
-      <c r="AM25" s="13"/>
-      <c r="AN25" s="13"/>
-      <c r="AO25" s="13"/>
-      <c r="AP25" s="13"/>
-      <c r="AQ25" s="13"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
+      <c r="AN25" s="15"/>
+      <c r="AO25" s="15"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="15"/>
     </row>
     <row r="26" spans="2:43" ht="36" customHeight="1">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
       <c r="N26" s="1" t="s">
         <v>106</v>
       </c>
@@ -4521,25 +4521,25 @@
         <v>26</v>
       </c>
       <c r="P26" s="3"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
       <c r="T26" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
       <c r="Z26" s="4" t="s">
         <v>179</v>
       </c>
       <c r="AA26" s="3"/>
       <c r="AB26" s="5"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="13"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
       <c r="AF26" s="4" t="s">
         <v>180</v>
       </c>
@@ -4552,26 +4552,26 @@
         <v>26</v>
       </c>
       <c r="AK26" s="3"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
-      <c r="AQ26" s="13"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
+      <c r="AQ26" s="15"/>
     </row>
     <row r="27" spans="2:43" ht="48" customHeight="1">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
       <c r="N27" s="1" t="s">
         <v>182</v>
       </c>
@@ -4579,9 +4579,9 @@
         <v>26</v>
       </c>
       <c r="P27" s="3"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
       <c r="T27" s="1" t="s">
         <v>183</v>
       </c>
@@ -4589,45 +4589,45 @@
         <v>26</v>
       </c>
       <c r="V27" s="3"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="15"/>
+      <c r="Y27" s="15"/>
       <c r="Z27" s="4" t="s">
         <v>184</v>
       </c>
       <c r="AA27" s="3"/>
       <c r="AB27" s="5"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="13"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
       <c r="AF27" s="4" t="s">
         <v>185</v>
       </c>
       <c r="AG27" s="3"/>
       <c r="AH27" s="5"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="13"/>
-      <c r="AK27" s="13"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="13"/>
-      <c r="AN27" s="13"/>
-      <c r="AO27" s="13"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="13"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="15"/>
     </row>
     <row r="28" spans="2:43" ht="60" customHeight="1">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="15"/>
       <c r="N28" s="1" t="s">
         <v>177</v>
       </c>
@@ -4635,9 +4635,9 @@
         <v>26</v>
       </c>
       <c r="P28" s="3"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
       <c r="T28" s="1" t="s">
         <v>121</v>
       </c>
@@ -4645,43 +4645,43 @@
         <v>26</v>
       </c>
       <c r="V28" s="3"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="15"/>
+      <c r="Y28" s="15"/>
       <c r="Z28" s="4" t="s">
         <v>186</v>
       </c>
       <c r="AA28" s="3"/>
       <c r="AB28" s="5"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="13"/>
+      <c r="AC28" s="15"/>
+      <c r="AD28" s="15"/>
+      <c r="AE28" s="15"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="15"/>
     </row>
     <row r="29" spans="2:43" ht="72" customHeight="1">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="1" t="s">
         <v>129</v>
       </c>
@@ -4689,9 +4689,9 @@
         <v>26</v>
       </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
       <c r="T29" s="1" t="s">
         <v>187</v>
       </c>
@@ -4699,9 +4699,9 @@
         <v>26</v>
       </c>
       <c r="V29" s="3"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
       <c r="Z29" s="1" t="s">
         <v>188</v>
       </c>
@@ -4709,89 +4709,89 @@
         <v>26</v>
       </c>
       <c r="AB29" s="3"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-      <c r="AK29" s="13"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="13"/>
-      <c r="AN29" s="13"/>
-      <c r="AO29" s="13"/>
-      <c r="AP29" s="13"/>
-      <c r="AQ29" s="13"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="15"/>
     </row>
     <row r="30" spans="2:43" ht="48" customHeight="1">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
       <c r="T30" s="4" t="s">
         <v>189</v>
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="13"/>
-      <c r="X30" s="13"/>
-      <c r="Y30" s="13"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="15"/>
+      <c r="Y30" s="15"/>
       <c r="Z30" s="4" t="s">
         <v>190</v>
       </c>
       <c r="AA30" s="3"/>
       <c r="AB30" s="5"/>
-      <c r="AC30" s="13"/>
-      <c r="AD30" s="13"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-      <c r="AK30" s="13"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="13"/>
-      <c r="AN30" s="13"/>
-      <c r="AO30" s="13"/>
-      <c r="AP30" s="13"/>
-      <c r="AQ30" s="13"/>
+      <c r="AC30" s="15"/>
+      <c r="AD30" s="15"/>
+      <c r="AE30" s="15"/>
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="15"/>
+      <c r="AH30" s="15"/>
+      <c r="AI30" s="15"/>
+      <c r="AJ30" s="15"/>
+      <c r="AK30" s="15"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
+      <c r="AN30" s="15"/>
+      <c r="AO30" s="15"/>
+      <c r="AP30" s="15"/>
+      <c r="AQ30" s="15"/>
     </row>
     <row r="31" spans="2:43" ht="48" customHeight="1">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
       <c r="T31" s="1" t="s">
         <v>191</v>
       </c>
@@ -4799,49 +4799,49 @@
         <v>26</v>
       </c>
       <c r="V31" s="3"/>
-      <c r="W31" s="13"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
       <c r="Z31" s="4" t="s">
         <v>192</v>
       </c>
       <c r="AA31" s="3"/>
       <c r="AB31" s="5"/>
-      <c r="AC31" s="13"/>
-      <c r="AD31" s="13"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-      <c r="AK31" s="13"/>
-      <c r="AL31" s="13"/>
-      <c r="AM31" s="13"/>
-      <c r="AN31" s="13"/>
-      <c r="AO31" s="13"/>
-      <c r="AP31" s="13"/>
-      <c r="AQ31" s="13"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="15"/>
+      <c r="AJ31" s="15"/>
+      <c r="AK31" s="15"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
+      <c r="AN31" s="15"/>
+      <c r="AO31" s="15"/>
+      <c r="AP31" s="15"/>
+      <c r="AQ31" s="15"/>
     </row>
     <row r="32" spans="2:43" ht="72" customHeight="1">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
       <c r="T32" s="1" t="s">
         <v>193</v>
       </c>
@@ -4849,9 +4849,9 @@
         <v>26</v>
       </c>
       <c r="V32" s="3"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="13"/>
-      <c r="Y32" s="13"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="15"/>
+      <c r="Y32" s="15"/>
       <c r="Z32" s="1" t="s">
         <v>194</v>
       </c>
@@ -4859,41 +4859,41 @@
         <v>26</v>
       </c>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="13"/>
-      <c r="AD32" s="13"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-      <c r="AK32" s="13"/>
-      <c r="AL32" s="13"/>
-      <c r="AM32" s="13"/>
-      <c r="AN32" s="13"/>
-      <c r="AO32" s="13"/>
-      <c r="AP32" s="13"/>
-      <c r="AQ32" s="13"/>
+      <c r="AC32" s="15"/>
+      <c r="AD32" s="15"/>
+      <c r="AE32" s="15"/>
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="15"/>
+      <c r="AH32" s="15"/>
+      <c r="AI32" s="15"/>
+      <c r="AJ32" s="15"/>
+      <c r="AK32" s="15"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
+      <c r="AN32" s="15"/>
+      <c r="AO32" s="15"/>
+      <c r="AP32" s="15"/>
+      <c r="AQ32" s="15"/>
     </row>
     <row r="33" spans="2:43" ht="60" customHeight="1">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
       <c r="T33" s="1" t="s">
         <v>195</v>
       </c>
@@ -4901,49 +4901,49 @@
         <v>26</v>
       </c>
       <c r="V33" s="3"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="15"/>
+      <c r="Y33" s="15"/>
       <c r="Z33" s="4" t="s">
         <v>196</v>
       </c>
       <c r="AA33" s="3"/>
       <c r="AB33" s="5"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-      <c r="AK33" s="13"/>
-      <c r="AL33" s="13"/>
-      <c r="AM33" s="13"/>
-      <c r="AN33" s="13"/>
-      <c r="AO33" s="13"/>
-      <c r="AP33" s="13"/>
-      <c r="AQ33" s="13"/>
+      <c r="AC33" s="15"/>
+      <c r="AD33" s="15"/>
+      <c r="AE33" s="15"/>
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="15"/>
+      <c r="AH33" s="15"/>
+      <c r="AI33" s="15"/>
+      <c r="AJ33" s="15"/>
+      <c r="AK33" s="15"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
+      <c r="AN33" s="15"/>
+      <c r="AO33" s="15"/>
+      <c r="AP33" s="15"/>
+      <c r="AQ33" s="15"/>
     </row>
     <row r="34" spans="2:43" ht="48" customHeight="1">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
       <c r="T34" s="1" t="s">
         <v>173</v>
       </c>
@@ -4951,49 +4951,49 @@
         <v>26</v>
       </c>
       <c r="V34" s="3"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
       <c r="Z34" s="4" t="s">
         <v>197</v>
       </c>
       <c r="AA34" s="3"/>
       <c r="AB34" s="5"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-      <c r="AK34" s="13"/>
-      <c r="AL34" s="13"/>
-      <c r="AM34" s="13"/>
-      <c r="AN34" s="13"/>
-      <c r="AO34" s="13"/>
-      <c r="AP34" s="13"/>
-      <c r="AQ34" s="13"/>
+      <c r="AC34" s="15"/>
+      <c r="AD34" s="15"/>
+      <c r="AE34" s="15"/>
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="15"/>
+      <c r="AH34" s="15"/>
+      <c r="AI34" s="15"/>
+      <c r="AJ34" s="15"/>
+      <c r="AK34" s="15"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
+      <c r="AN34" s="15"/>
+      <c r="AO34" s="15"/>
+      <c r="AP34" s="15"/>
+      <c r="AQ34" s="15"/>
     </row>
     <row r="35" spans="2:43" ht="36" customHeight="1">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
       <c r="T35" s="1" t="s">
         <v>149</v>
       </c>
@@ -5001,105 +5001,105 @@
         <v>26</v>
       </c>
       <c r="V35" s="3"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
       <c r="Z35" s="4" t="s">
         <v>198</v>
       </c>
       <c r="AA35" s="3"/>
       <c r="AB35" s="5"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-      <c r="AK35" s="13"/>
-      <c r="AL35" s="13"/>
-      <c r="AM35" s="13"/>
-      <c r="AN35" s="13"/>
-      <c r="AO35" s="13"/>
-      <c r="AP35" s="13"/>
-      <c r="AQ35" s="13"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="15"/>
+      <c r="AH35" s="15"/>
+      <c r="AI35" s="15"/>
+      <c r="AJ35" s="15"/>
+      <c r="AK35" s="15"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
+      <c r="AN35" s="15"/>
+      <c r="AO35" s="15"/>
+      <c r="AP35" s="15"/>
+      <c r="AQ35" s="15"/>
     </row>
     <row r="36" spans="2:43" ht="48" customHeight="1">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="4" t="s">
         <v>199</v>
       </c>
       <c r="U36" s="3"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
       <c r="Z36" s="4" t="s">
         <v>200</v>
       </c>
       <c r="AA36" s="3"/>
       <c r="AB36" s="5"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-      <c r="AK36" s="13"/>
-      <c r="AL36" s="13"/>
-      <c r="AM36" s="13"/>
-      <c r="AN36" s="13"/>
-      <c r="AO36" s="13"/>
-      <c r="AP36" s="13"/>
-      <c r="AQ36" s="13"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
     </row>
     <row r="37" spans="2:43" ht="60" customHeight="1">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
       <c r="T37" s="4" t="s">
         <v>201</v>
       </c>
       <c r="U37" s="3"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
       <c r="Z37" s="1" t="s">
         <v>202</v>
       </c>
@@ -5107,41 +5107,41 @@
         <v>26</v>
       </c>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="13"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-      <c r="AK37" s="13"/>
-      <c r="AL37" s="13"/>
-      <c r="AM37" s="13"/>
-      <c r="AN37" s="13"/>
-      <c r="AO37" s="13"/>
-      <c r="AP37" s="13"/>
-      <c r="AQ37" s="13"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="15"/>
     </row>
     <row r="38" spans="2:43" ht="60" customHeight="1">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="15"/>
       <c r="T38" s="1" t="s">
         <v>203</v>
       </c>
@@ -5149,47 +5149,47 @@
         <v>26</v>
       </c>
       <c r="V38" s="3"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="13"/>
-      <c r="Z38" s="13"/>
-      <c r="AA38" s="13"/>
-      <c r="AB38" s="13"/>
-      <c r="AC38" s="13"/>
-      <c r="AD38" s="13"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
-      <c r="AO38" s="13"/>
-      <c r="AP38" s="13"/>
-      <c r="AQ38" s="13"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="15"/>
+      <c r="Y38" s="15"/>
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="15"/>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="15"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="15"/>
+      <c r="AH38" s="15"/>
+      <c r="AI38" s="15"/>
+      <c r="AJ38" s="15"/>
+      <c r="AK38" s="15"/>
+      <c r="AL38" s="15"/>
+      <c r="AM38" s="15"/>
+      <c r="AN38" s="15"/>
+      <c r="AO38" s="15"/>
+      <c r="AP38" s="15"/>
+      <c r="AQ38" s="15"/>
     </row>
     <row r="39" spans="2:43" ht="60" customHeight="1">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="15"/>
+      <c r="R39" s="15"/>
+      <c r="S39" s="15"/>
       <c r="T39" s="1" t="s">
         <v>204</v>
       </c>
@@ -5197,47 +5197,47 @@
         <v>26</v>
       </c>
       <c r="V39" s="3"/>
-      <c r="W39" s="13"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
-      <c r="AA39" s="13"/>
-      <c r="AB39" s="13"/>
-      <c r="AC39" s="13"/>
-      <c r="AD39" s="13"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-      <c r="AK39" s="13"/>
-      <c r="AL39" s="13"/>
-      <c r="AM39" s="13"/>
-      <c r="AN39" s="13"/>
-      <c r="AO39" s="13"/>
-      <c r="AP39" s="13"/>
-      <c r="AQ39" s="13"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="15"/>
+      <c r="Y39" s="15"/>
+      <c r="Z39" s="15"/>
+      <c r="AA39" s="15"/>
+      <c r="AB39" s="15"/>
+      <c r="AC39" s="15"/>
+      <c r="AD39" s="15"/>
+      <c r="AE39" s="15"/>
+      <c r="AF39" s="15"/>
+      <c r="AG39" s="15"/>
+      <c r="AH39" s="15"/>
+      <c r="AI39" s="15"/>
+      <c r="AJ39" s="15"/>
+      <c r="AK39" s="15"/>
+      <c r="AL39" s="15"/>
+      <c r="AM39" s="15"/>
+      <c r="AN39" s="15"/>
+      <c r="AO39" s="15"/>
+      <c r="AP39" s="15"/>
+      <c r="AQ39" s="15"/>
     </row>
     <row r="40" spans="2:43" ht="48" customHeight="1">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="15"/>
+      <c r="S40" s="15"/>
       <c r="T40" s="1" t="s">
         <v>205</v>
       </c>
@@ -5245,93 +5245,93 @@
         <v>26</v>
       </c>
       <c r="V40" s="3"/>
-      <c r="W40" s="13"/>
-      <c r="X40" s="13"/>
-      <c r="Y40" s="13"/>
-      <c r="Z40" s="13"/>
-      <c r="AA40" s="13"/>
-      <c r="AB40" s="13"/>
-      <c r="AC40" s="13"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-      <c r="AK40" s="13"/>
-      <c r="AL40" s="13"/>
-      <c r="AM40" s="13"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="13"/>
-      <c r="AP40" s="13"/>
-      <c r="AQ40" s="13"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="15"/>
+      <c r="AL40" s="15"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="15"/>
+      <c r="AO40" s="15"/>
+      <c r="AP40" s="15"/>
+      <c r="AQ40" s="15"/>
     </row>
     <row r="41" spans="2:43" ht="24" customHeight="1">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="15"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="15"/>
+      <c r="S41" s="15"/>
       <c r="T41" s="4" t="s">
         <v>206</v>
       </c>
       <c r="U41" s="3"/>
       <c r="V41" s="5"/>
-      <c r="W41" s="13"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="13"/>
-      <c r="Z41" s="13"/>
-      <c r="AA41" s="13"/>
-      <c r="AB41" s="13"/>
-      <c r="AC41" s="13"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-      <c r="AK41" s="13"/>
-      <c r="AL41" s="13"/>
-      <c r="AM41" s="13"/>
-      <c r="AN41" s="13"/>
-      <c r="AO41" s="13"/>
-      <c r="AP41" s="13"/>
-      <c r="AQ41" s="13"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="15"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="15"/>
+      <c r="AA41" s="15"/>
+      <c r="AB41" s="15"/>
+      <c r="AC41" s="15"/>
+      <c r="AD41" s="15"/>
+      <c r="AE41" s="15"/>
+      <c r="AF41" s="15"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="15"/>
+      <c r="AI41" s="15"/>
+      <c r="AJ41" s="15"/>
+      <c r="AK41" s="15"/>
+      <c r="AL41" s="15"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="15"/>
+      <c r="AO41" s="15"/>
+      <c r="AP41" s="15"/>
+      <c r="AQ41" s="15"/>
     </row>
     <row r="42" spans="2:43" ht="38.25">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="15"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="15"/>
+      <c r="R42" s="15"/>
+      <c r="S42" s="15"/>
       <c r="T42" s="1" t="s">
         <v>177</v>
       </c>
@@ -5339,47 +5339,47 @@
         <v>26</v>
       </c>
       <c r="V42" s="3"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="13"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-      <c r="AK42" s="13"/>
-      <c r="AL42" s="13"/>
-      <c r="AM42" s="13"/>
-      <c r="AN42" s="13"/>
-      <c r="AO42" s="13"/>
-      <c r="AP42" s="13"/>
-      <c r="AQ42" s="13"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="15"/>
+      <c r="Y42" s="15"/>
+      <c r="Z42" s="15"/>
+      <c r="AA42" s="15"/>
+      <c r="AB42" s="15"/>
+      <c r="AC42" s="15"/>
+      <c r="AD42" s="15"/>
+      <c r="AE42" s="15"/>
+      <c r="AF42" s="15"/>
+      <c r="AG42" s="15"/>
+      <c r="AH42" s="15"/>
+      <c r="AI42" s="15"/>
+      <c r="AJ42" s="15"/>
+      <c r="AK42" s="15"/>
+      <c r="AL42" s="15"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="15"/>
+      <c r="AO42" s="15"/>
+      <c r="AP42" s="15"/>
+      <c r="AQ42" s="15"/>
     </row>
     <row r="43" spans="2:43" ht="76.5">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="13"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="13"/>
-      <c r="S43" s="13"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="15"/>
+      <c r="R43" s="15"/>
+      <c r="S43" s="15"/>
       <c r="T43" s="1" t="s">
         <v>207</v>
       </c>
@@ -5387,93 +5387,93 @@
         <v>26</v>
       </c>
       <c r="V43" s="3"/>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="13"/>
-      <c r="Z43" s="13"/>
-      <c r="AA43" s="13"/>
-      <c r="AB43" s="13"/>
-      <c r="AC43" s="13"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-      <c r="AK43" s="13"/>
-      <c r="AL43" s="13"/>
-      <c r="AM43" s="13"/>
-      <c r="AN43" s="13"/>
-      <c r="AO43" s="13"/>
-      <c r="AP43" s="13"/>
-      <c r="AQ43" s="13"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="Y43" s="15"/>
+      <c r="Z43" s="15"/>
+      <c r="AA43" s="15"/>
+      <c r="AB43" s="15"/>
+      <c r="AC43" s="15"/>
+      <c r="AD43" s="15"/>
+      <c r="AE43" s="15"/>
+      <c r="AF43" s="15"/>
+      <c r="AG43" s="15"/>
+      <c r="AH43" s="15"/>
+      <c r="AI43" s="15"/>
+      <c r="AJ43" s="15"/>
+      <c r="AK43" s="15"/>
+      <c r="AL43" s="15"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="15"/>
+      <c r="AO43" s="15"/>
+      <c r="AP43" s="15"/>
+      <c r="AQ43" s="15"/>
     </row>
     <row r="44" spans="2:43" ht="51">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
       <c r="T44" s="4" t="s">
         <v>208</v>
       </c>
       <c r="U44" s="3"/>
       <c r="V44" s="5"/>
-      <c r="W44" s="13"/>
-      <c r="X44" s="13"/>
-      <c r="Y44" s="13"/>
-      <c r="Z44" s="13"/>
-      <c r="AA44" s="13"/>
-      <c r="AB44" s="13"/>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-      <c r="AK44" s="13"/>
-      <c r="AL44" s="13"/>
-      <c r="AM44" s="13"/>
-      <c r="AN44" s="13"/>
-      <c r="AO44" s="13"/>
-      <c r="AP44" s="13"/>
-      <c r="AQ44" s="13"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="15"/>
+      <c r="AH44" s="15"/>
+      <c r="AI44" s="15"/>
+      <c r="AJ44" s="15"/>
+      <c r="AK44" s="15"/>
+      <c r="AL44" s="15"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="15"/>
+      <c r="AO44" s="15"/>
+      <c r="AP44" s="15"/>
+      <c r="AQ44" s="15"/>
     </row>
     <row r="45" spans="2:43" ht="76.5">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="13"/>
-      <c r="S45" s="13"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
       <c r="T45" s="1" t="s">
         <v>134</v>
       </c>
@@ -5481,47 +5481,47 @@
         <v>26</v>
       </c>
       <c r="V45" s="3"/>
-      <c r="W45" s="13"/>
-      <c r="X45" s="13"/>
-      <c r="Y45" s="13"/>
-      <c r="Z45" s="13"/>
-      <c r="AA45" s="13"/>
-      <c r="AB45" s="13"/>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-      <c r="AK45" s="13"/>
-      <c r="AL45" s="13"/>
-      <c r="AM45" s="13"/>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="13"/>
-      <c r="AP45" s="13"/>
-      <c r="AQ45" s="13"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="15"/>
+      <c r="AA45" s="15"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="15"/>
+      <c r="AH45" s="15"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
+      <c r="AO45" s="15"/>
+      <c r="AP45" s="15"/>
+      <c r="AQ45" s="15"/>
     </row>
     <row r="46" spans="2:43" ht="38.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
       <c r="T46" s="1" t="s">
         <v>129</v>
       </c>
@@ -5529,47 +5529,47 @@
         <v>26</v>
       </c>
       <c r="V46" s="3"/>
-      <c r="W46" s="13"/>
-      <c r="X46" s="13"/>
-      <c r="Y46" s="13"/>
-      <c r="Z46" s="13"/>
-      <c r="AA46" s="13"/>
-      <c r="AB46" s="13"/>
-      <c r="AC46" s="13"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-      <c r="AK46" s="13"/>
-      <c r="AL46" s="13"/>
-      <c r="AM46" s="13"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="13"/>
-      <c r="AP46" s="13"/>
-      <c r="AQ46" s="13"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="15"/>
+      <c r="AA46" s="15"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="15"/>
+      <c r="AH46" s="15"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="15"/>
+      <c r="AO46" s="15"/>
+      <c r="AP46" s="15"/>
+      <c r="AQ46" s="15"/>
     </row>
     <row r="47" spans="2:43" ht="63.75">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="13"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="13"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="13"/>
-      <c r="S47" s="13"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
       <c r="T47" s="1" t="s">
         <v>202</v>
       </c>
@@ -5577,47 +5577,47 @@
         <v>26</v>
       </c>
       <c r="V47" s="3"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="13"/>
-      <c r="AB47" s="13"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="13"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-      <c r="AL47" s="13"/>
-      <c r="AM47" s="13"/>
-      <c r="AN47" s="13"/>
-      <c r="AO47" s="13"/>
-      <c r="AP47" s="13"/>
-      <c r="AQ47" s="13"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="15"/>
+      <c r="Y47" s="15"/>
+      <c r="Z47" s="15"/>
+      <c r="AA47" s="15"/>
+      <c r="AB47" s="15"/>
+      <c r="AC47" s="15"/>
+      <c r="AD47" s="15"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="15"/>
+      <c r="AN47" s="15"/>
+      <c r="AO47" s="15"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="15"/>
     </row>
     <row r="48" spans="2:43" ht="38.25">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="15"/>
+      <c r="R48" s="15"/>
+      <c r="S48" s="15"/>
       <c r="T48" s="1" t="s">
         <v>209</v>
       </c>
@@ -5625,174 +5625,313 @@
         <v>26</v>
       </c>
       <c r="V48" s="3"/>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="13"/>
-      <c r="Z48" s="13"/>
-      <c r="AA48" s="13"/>
-      <c r="AB48" s="13"/>
-      <c r="AC48" s="13"/>
-      <c r="AD48" s="13"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-      <c r="AK48" s="13"/>
-      <c r="AL48" s="13"/>
-      <c r="AM48" s="13"/>
-      <c r="AN48" s="13"/>
-      <c r="AO48" s="13"/>
-      <c r="AP48" s="13"/>
-      <c r="AQ48" s="13"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="15"/>
+      <c r="AO48" s="15"/>
+      <c r="AP48" s="15"/>
+      <c r="AQ48" s="15"/>
     </row>
     <row r="49" spans="2:43" ht="38.25">
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
       <c r="T49" s="4" t="s">
         <v>210</v>
       </c>
       <c r="U49" s="3"/>
       <c r="V49" s="5"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
-      <c r="Y49" s="13"/>
-      <c r="Z49" s="13"/>
-      <c r="AA49" s="13"/>
-      <c r="AB49" s="13"/>
-      <c r="AC49" s="13"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-      <c r="AK49" s="13"/>
-      <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
-      <c r="AN49" s="13"/>
-      <c r="AO49" s="13"/>
-      <c r="AP49" s="13"/>
-      <c r="AQ49" s="13"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="15"/>
+      <c r="AO49" s="15"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="359">
-    <mergeCell ref="AF9:AH9"/>
-    <mergeCell ref="AI9:AK9"/>
-    <mergeCell ref="AL9:AN9"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AC9:AE9"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="AC20:AE20"/>
-    <mergeCell ref="AL20:AN20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="AC21:AE21"/>
-    <mergeCell ref="AL21:AN21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AL22:AN22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="AL23:AN23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="AL24:AN24"/>
-    <mergeCell ref="AO24:AQ24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AL25:AN25"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="AL26:AN26"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="AF29:AH29"/>
-    <mergeCell ref="AI29:AK29"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="AF28:AH28"/>
-    <mergeCell ref="AI28:AK28"/>
-    <mergeCell ref="AL28:AN28"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="AI27:AK27"/>
-    <mergeCell ref="AL27:AN27"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="AL49:AN49"/>
+    <mergeCell ref="AO49:AQ49"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="AL47:AN47"/>
+    <mergeCell ref="AO47:AQ47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="AI48:AK48"/>
+    <mergeCell ref="AL48:AN48"/>
+    <mergeCell ref="AO48:AQ48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="AL45:AN45"/>
+    <mergeCell ref="AO45:AQ45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="AL46:AN46"/>
+    <mergeCell ref="AO46:AQ46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="AL43:AN43"/>
+    <mergeCell ref="AO43:AQ43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="AL44:AN44"/>
+    <mergeCell ref="AO44:AQ44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="AL41:AN41"/>
+    <mergeCell ref="AO41:AQ41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="AL42:AN42"/>
+    <mergeCell ref="AO42:AQ42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="AL39:AN39"/>
+    <mergeCell ref="AO39:AQ39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="AL40:AN40"/>
+    <mergeCell ref="AO40:AQ40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AI37:AK37"/>
+    <mergeCell ref="AL37:AN37"/>
+    <mergeCell ref="AO37:AQ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="AC37:AE37"/>
+    <mergeCell ref="AF37:AH37"/>
+    <mergeCell ref="AI35:AK35"/>
+    <mergeCell ref="AL35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="W36:Y36"/>
+    <mergeCell ref="AC36:AE36"/>
+    <mergeCell ref="AF36:AH36"/>
+    <mergeCell ref="AI36:AK36"/>
+    <mergeCell ref="AL36:AN36"/>
+    <mergeCell ref="AO36:AQ36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:P35"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="W35:Y35"/>
+    <mergeCell ref="AC35:AE35"/>
+    <mergeCell ref="AF35:AH35"/>
+    <mergeCell ref="AI33:AK33"/>
+    <mergeCell ref="AL33:AN33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="AC34:AE34"/>
+    <mergeCell ref="AF34:AH34"/>
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="AL34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="W33:Y33"/>
+    <mergeCell ref="AC33:AE33"/>
+    <mergeCell ref="AF33:AH33"/>
+    <mergeCell ref="AI31:AK31"/>
+    <mergeCell ref="AL31:AN31"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="AC32:AE32"/>
+    <mergeCell ref="AF32:AH32"/>
+    <mergeCell ref="AI32:AK32"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="AO32:AQ32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q31:S31"/>
     <mergeCell ref="W31:Y31"/>
     <mergeCell ref="AC31:AE31"/>
     <mergeCell ref="AF31:AH31"/>
@@ -5817,243 +5956,104 @@
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="W33:Y33"/>
-    <mergeCell ref="AC33:AE33"/>
-    <mergeCell ref="AF33:AH33"/>
-    <mergeCell ref="AI31:AK31"/>
-    <mergeCell ref="AL31:AN31"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="AC32:AE32"/>
-    <mergeCell ref="AF32:AH32"/>
-    <mergeCell ref="AI32:AK32"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="AO32:AQ32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="W35:Y35"/>
-    <mergeCell ref="AC35:AE35"/>
-    <mergeCell ref="AF35:AH35"/>
-    <mergeCell ref="AI33:AK33"/>
-    <mergeCell ref="AL33:AN33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="AC34:AE34"/>
-    <mergeCell ref="AF34:AH34"/>
-    <mergeCell ref="AI34:AK34"/>
-    <mergeCell ref="AL34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="Q33:S33"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="AC37:AE37"/>
-    <mergeCell ref="AF37:AH37"/>
-    <mergeCell ref="AI35:AK35"/>
-    <mergeCell ref="AL35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:P36"/>
-    <mergeCell ref="Q36:S36"/>
-    <mergeCell ref="W36:Y36"/>
-    <mergeCell ref="AC36:AE36"/>
-    <mergeCell ref="AF36:AH36"/>
-    <mergeCell ref="AI36:AK36"/>
-    <mergeCell ref="AL36:AN36"/>
-    <mergeCell ref="AO36:AQ36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:P35"/>
-    <mergeCell ref="Q35:S35"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AI37:AK37"/>
-    <mergeCell ref="AL37:AN37"/>
-    <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="AL39:AN39"/>
-    <mergeCell ref="AO39:AQ39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="AL40:AN40"/>
-    <mergeCell ref="AO40:AQ40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="AO41:AQ41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="AL42:AN42"/>
-    <mergeCell ref="AO42:AQ42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="AL41:AN41"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="AL43:AN43"/>
-    <mergeCell ref="AO43:AQ43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="AL44:AN44"/>
-    <mergeCell ref="AO44:AQ44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="AL45:AN45"/>
-    <mergeCell ref="AO45:AQ45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="AL46:AN46"/>
-    <mergeCell ref="AO46:AQ46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="AL47:AN47"/>
-    <mergeCell ref="AO47:AQ47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="AF48:AH48"/>
-    <mergeCell ref="AI48:AK48"/>
-    <mergeCell ref="AL48:AN48"/>
-    <mergeCell ref="AO48:AQ48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="AL49:AN49"/>
-    <mergeCell ref="AO49:AQ49"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF29:AH29"/>
+    <mergeCell ref="AI29:AK29"/>
+    <mergeCell ref="AO27:AQ27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="AF28:AH28"/>
+    <mergeCell ref="AI28:AK28"/>
+    <mergeCell ref="AL28:AN28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="AI27:AK27"/>
+    <mergeCell ref="AL27:AN27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="AL26:AN26"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="AL24:AN24"/>
+    <mergeCell ref="AO24:AQ24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AL25:AN25"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AL22:AN22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="AL23:AN23"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="AC20:AE20"/>
+    <mergeCell ref="AL20:AN20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="AC21:AE21"/>
+    <mergeCell ref="AL21:AN21"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AC9:AE9"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="AF9:AH9"/>
+    <mergeCell ref="AI9:AK9"/>
+    <mergeCell ref="AL9:AN9"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1" tooltip="https://attack.mitre.org/tactics/TA0043" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -20978,7 +20978,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
